--- a/biology/Botanique/Arctostaphylos_manzanita/Arctostaphylos_manzanita.xlsx
+++ b/biology/Botanique/Arctostaphylos_manzanita/Arctostaphylos_manzanita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctostaphylos manzanita, l'Arctostaphyle commune (une des espèces de manzanitas), est une espèce de plantes à fleurs dicotylédones de la famille des Ericaceae, sous-famille des Arbutoideae, endémique des chaînes côtières californiennes. C'est un arbuste ou petit arbre, à port dressé, au houppier globuleux, de 2 à 8 mètres de haut, pouvant présenter des broussins proéminents sur le tronc. Il est abondant dans les chaparrals et les forêts de conifères tempérées.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (28 janvier 2022)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 janvier 2022) :
 Arctostaphylos bowermaniae Roof
 Arctostaphylos manzanita var. apiculata Jeps.
 Arctostaphylos pungens subsp. manzanita (Parry) Roof
-Uva-ursi manzanita (Parry) A. Heller
-Sous-espèces
-Selon NCBI  (28 janvier 2022)[3] :
+Uva-ursi manzanita (Parry) A. Heller</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arctostaphylos_manzanita</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arctostaphylos_manzanita</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 janvier 2022) :
 Arctostaphylos manzanita subsp. elegans (Jeps.) P.V.Wells
 Arctostaphylos manzanita subsp. glaucescens P.V.Wells
 Arctostaphylos manzanita subsp. laevigata (Eastw.) Munz
@@ -529,31 +580,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Arctostaphylos_manzanita</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arctostaphylos_manzanita</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Casebeer, Discover California Shrubs, California: Hooker Press, 2004, 120 p. (ISBN 978-0-9665463-1-6)</t>
         </is>
